--- a/Practical8/autophagosome.xlsx
+++ b/Practical8/autophagosome.xlsx
@@ -757,7 +757,7 @@
         <v>76</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1163,7 +1163,7 @@
         <v>105</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
